--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3729432.938057854</v>
+        <v>3725276.751749887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599947.162454613</v>
+        <v>7599947.162454614</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>361.1579292787168</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>75.64929588703242</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -718,16 +718,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>161.3542542586394</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>54.5481168811937</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -876,7 +876,7 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.92028003157842</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>369.3850781412669</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>148.098076380087</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>76.60129660960703</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>260.3181623246007</v>
+        <v>49.68232421200497</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>82.4981913550469</v>
       </c>
       <c r="S10" t="n">
-        <v>65.33923209833344</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>42.20606459030856</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881297</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.53421095546916</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>156.8624097380499</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.6751468632156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>41.55695577161238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960842</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>52.47682210853034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.832263189218</v>
+        <v>874.7988590758284</v>
       </c>
       <c r="C2" t="n">
-        <v>1265.026274018797</v>
+        <v>505.8363421354167</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.026274018797</v>
+        <v>147.5706435286662</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>147.5706435286662</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>140.6251427794627</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>128.2132855117414</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>128.2132855117414</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>855.6346016074082</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.657811227302</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1802.132917462887</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>2077.249136779522</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4363,19 +4363,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459332</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.832263189218</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>1629.832263189218</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.832263189218</v>
+        <v>1261.39869913995</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>532.9594726600624</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661426</v>
+        <v>796.8990041555485</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094759</v>
+        <v>1437.922213775443</v>
       </c>
       <c r="O3" t="n">
-        <v>2215.08392393018</v>
+        <v>2066.650861610862</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>797.654523128663</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="C4" t="n">
-        <v>634.6704279179161</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6704279179161</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136561</v>
+        <v>766.6588426383016</v>
       </c>
       <c r="U4" t="n">
-        <v>797.654523128663</v>
+        <v>477.5222156304037</v>
       </c>
       <c r="V4" t="n">
-        <v>797.654523128663</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="W4" t="n">
-        <v>797.654523128663</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="X4" t="n">
-        <v>797.654523128663</v>
+        <v>222.8377274245168</v>
       </c>
       <c r="Y4" t="n">
-        <v>797.654523128663</v>
+        <v>222.8377274245168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.893732126065</v>
+        <v>1528.404814889293</v>
       </c>
       <c r="C5" t="n">
-        <v>879.9312151856534</v>
+        <v>1159.442297948881</v>
       </c>
       <c r="D5" t="n">
-        <v>521.6655165789028</v>
+        <v>801.1765993421307</v>
       </c>
       <c r="E5" t="n">
-        <v>135.8772639806586</v>
+        <v>801.1765993421307</v>
       </c>
       <c r="F5" t="n">
-        <v>128.9317632314551</v>
+        <v>794.2310985929272</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104773</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135505</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083232</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739661</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="W5" t="n">
-        <v>1652.581995469547</v>
+        <v>1528.404814889293</v>
       </c>
       <c r="X5" t="n">
-        <v>1279.116237208468</v>
+        <v>1528.404814889293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1279.116237208468</v>
+        <v>1528.404814889293</v>
       </c>
     </row>
     <row r="6">
@@ -4631,19 +4631,19 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
@@ -4655,16 +4655,16 @@
         <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1240.281905962037</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.7360382507266</v>
+        <v>939.1780282016797</v>
       </c>
       <c r="C7" t="n">
-        <v>51.7998553228197</v>
+        <v>770.2418452737728</v>
       </c>
       <c r="D7" t="n">
-        <v>51.7998553228197</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E7" t="n">
-        <v>51.7998553228197</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>51.7998553228197</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1395.268291365361</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.583803159474</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>851.1666331225138</v>
+        <v>1569.608623073467</v>
       </c>
       <c r="X7" t="n">
-        <v>623.1770822244964</v>
+        <v>1341.619072175449</v>
       </c>
       <c r="Y7" t="n">
-        <v>402.3845030809663</v>
+        <v>1120.826493031919</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.905710773185</v>
+        <v>1251.839579289765</v>
       </c>
       <c r="C8" t="n">
-        <v>1206.905710773185</v>
+        <v>882.8770623493538</v>
       </c>
       <c r="D8" t="n">
-        <v>1206.905710773185</v>
+        <v>524.6113637426033</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718591</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104781</v>
@@ -4822,34 +4822,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083232</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>2336.413538083232</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W8" t="n">
-        <v>1983.644882813118</v>
+        <v>2028.578751329699</v>
       </c>
       <c r="X8" t="n">
-        <v>1983.644882813118</v>
+        <v>2028.578751329699</v>
       </c>
       <c r="Y8" t="n">
-        <v>1593.505550837306</v>
+        <v>1638.439419353887</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.9164947351554</v>
+        <v>305.993511610141</v>
       </c>
       <c r="C10" t="n">
-        <v>201.9164947351554</v>
+        <v>305.993511610141</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7998553228197</v>
+        <v>305.993511610141</v>
       </c>
       <c r="E10" t="n">
-        <v>51.7998553228197</v>
+        <v>305.993511610141</v>
       </c>
       <c r="F10" t="n">
-        <v>51.7998553228197</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
         <v>527.5702436225445</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1563.652163734639</v>
       </c>
       <c r="S10" t="n">
-        <v>1478.863083569153</v>
+        <v>1367.202497740608</v>
       </c>
       <c r="T10" t="n">
-        <v>1255.928509111135</v>
+        <v>1367.202497740608</v>
       </c>
       <c r="U10" t="n">
-        <v>966.8107321215331</v>
+        <v>1078.084720751006</v>
       </c>
       <c r="V10" t="n">
-        <v>712.1262439156462</v>
+        <v>823.400232545119</v>
       </c>
       <c r="W10" t="n">
-        <v>422.7090738786856</v>
+        <v>533.9830625081584</v>
       </c>
       <c r="X10" t="n">
-        <v>422.7090738786856</v>
+        <v>305.993511610141</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.9164947351554</v>
+        <v>305.993511610141</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362665</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5105,43 +5105,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286973</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5648313007904</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>598.4481918884546</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>450.5350983060615</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>303.6451508081511</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>136.4490515230311</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>136.4490515230311</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8470138298251</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1089.917939501689</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>920.9817565737821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>770.8651171614464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>622.9520235790533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>476.0620760811429</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1492.358983475459</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1271.566404331929</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>701.4712640439268</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311364</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032295</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171305</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473703</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>333.6536211486842</v>
+        <v>151.673509307991</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>138.6886171670653</v>
+        <v>78.54371561234828</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530994</v>
+        <v>256.7871481632765</v>
       </c>
       <c r="N6" t="n">
-        <v>22.36271716134991</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-8.360466259697908e-14</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-8.966669107403908e-14</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>39.05977172825695</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>8.661728554218939</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.909506488879202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.4693302300322</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.7699989900975</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690483.089478737</v>
+        <v>690483.0894787373</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695122</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695004</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26438,28 +26438,28 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
         <v>93481.0893615096</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408824.1682164801</v>
+        <v>-408824.1682164779</v>
       </c>
       <c r="C6" t="n">
-        <v>384677.4774944194</v>
+        <v>384677.4774944166</v>
       </c>
       <c r="D6" t="n">
-        <v>557441.8372843114</v>
+        <v>557441.8372843117</v>
       </c>
       <c r="E6" t="n">
-        <v>158490.3916041529</v>
+        <v>158143.012349796</v>
       </c>
       <c r="F6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="G6" t="n">
-        <v>659379.2593499039</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="H6" t="n">
-        <v>659379.2593499037</v>
+        <v>659031.8800955467</v>
       </c>
       <c r="I6" t="n">
-        <v>659379.2593499034</v>
+        <v>659031.8800955471</v>
       </c>
       <c r="J6" t="n">
-        <v>489965.2425238556</v>
+        <v>489617.8632694987</v>
       </c>
       <c r="K6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="L6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955464</v>
       </c>
       <c r="M6" t="n">
-        <v>528494.8024456686</v>
+        <v>528147.4231913117</v>
       </c>
       <c r="N6" t="n">
-        <v>659379.2593499036</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="O6" t="n">
-        <v>659379.2593499036</v>
+        <v>659031.8800955472</v>
       </c>
       <c r="P6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955467</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>647.4981915352465</v>
+      </c>
+      <c r="C4" t="n">
+        <v>647.4981915352465</v>
+      </c>
+      <c r="D4" t="n">
         <v>647.4981915352464</v>
       </c>
-      <c r="C4" t="n">
-        <v>647.4981915352463</v>
-      </c>
-      <c r="D4" t="n">
-        <v>647.4981915352463</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,31 +26977,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644025</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644025</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.114962492290715</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>18.59085167181961</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>5.892566839988433</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>95.65477078272684</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352.8135616319021</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.13994524060246</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27830,13 +27830,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>138.1285228396186</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>209.921701726984</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>121.6122077476611</v>
+        <v>332.2480458602568</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.6019572654975</v>
       </c>
       <c r="S10" t="n">
-        <v>129.1459372357577</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6535388222617</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,37 +33496,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146281</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,37 +33733,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201433</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>615.0381444378773</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>573.6766324801913</v>
+        <v>391.6965206394962</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>312.758274696065</v>
+        <v>252.6133731413468</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352463</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="N6" t="n">
-        <v>416.7158094095745</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35035,7 +35035,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>432.0572943778172</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>108.4053175402692</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402691</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38025,7 +38025,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>472.904110515859</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3725276.751749887</v>
+        <v>3727037.282052673</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599947.162454614</v>
+        <v>7599947.162454613</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>137.4549127096635</v>
       </c>
       <c r="I2" t="n">
-        <v>75.64929588703242</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>54.5481168811937</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>79.43493830726328</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>261.7840650974929</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>369.3850781412669</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>39.99000580894876</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>76.60129660960703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>49.68232421200497</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>253.8207281244477</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.86538463674703</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>82.4981913550469</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>101.9268484343559</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>148.0280580960842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703276</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>874.7988590758284</v>
+        <v>1727.057431696932</v>
       </c>
       <c r="C2" t="n">
-        <v>505.8363421354167</v>
+        <v>1358.094914756521</v>
       </c>
       <c r="D2" t="n">
-        <v>147.5706435286662</v>
+        <v>999.8292161497702</v>
       </c>
       <c r="E2" t="n">
-        <v>147.5706435286662</v>
+        <v>614.0409635515259</v>
       </c>
       <c r="F2" t="n">
-        <v>140.6251427794627</v>
+        <v>203.0550587619184</v>
       </c>
       <c r="G2" t="n">
-        <v>128.2132855117414</v>
+        <v>190.643201494197</v>
       </c>
       <c r="H2" t="n">
-        <v>128.2132855117414</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>988.7937322481667</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1294.268838483752</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2117.196763672744</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115762</v>
+        <v>2117.196763672744</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115762</v>
+        <v>2117.196763672744</v>
       </c>
       <c r="Y2" t="n">
-        <v>1261.39869913995</v>
+        <v>1727.057431696932</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600624</v>
+        <v>1041.052645433267</v>
       </c>
       <c r="M3" t="n">
-        <v>796.8990041555485</v>
+        <v>1304.992176928754</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.922213775443</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.650861610862</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="C4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="D4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="E4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="F4" t="n">
-        <v>222.8377274245168</v>
+        <v>300.3589391511739</v>
       </c>
       <c r="G4" t="n">
-        <v>222.8377274245168</v>
+        <v>132.0371667442978</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>132.0371667442978</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383016</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5222156304037</v>
+        <v>701.9333748549711</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8377274245168</v>
+        <v>447.2488866490843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.404814889293</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.442297948881</v>
+        <v>1512.210953218995</v>
       </c>
       <c r="D5" t="n">
-        <v>801.1765993421307</v>
+        <v>1512.210953218995</v>
       </c>
       <c r="E5" t="n">
-        <v>801.1765993421307</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>794.2310985929272</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502978</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.173470159407</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.404814889293</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.404814889293</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.404814889293</v>
+        <v>1881.173470159406</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>1219.783862516113</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>939.1780282016797</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C7" t="n">
-        <v>770.2418452737728</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>92.19380058438412</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>92.19380058438412</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4764,13 +4764,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.608623073467</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.619072175449</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.826493031919</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.839579289765</v>
+        <v>1183.403261976894</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8770623493538</v>
+        <v>814.440745036482</v>
       </c>
       <c r="D8" t="n">
-        <v>524.6113637426033</v>
+        <v>456.1750464297314</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718912</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
         <v>51.79985532281972</v>
@@ -4834,22 +4834,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.578751329699</v>
+        <v>2333.608192277907</v>
       </c>
       <c r="X8" t="n">
-        <v>2028.578751329699</v>
+        <v>1960.142434016827</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.439419353887</v>
+        <v>1570.003102041015</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431329</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594476</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.993511610141</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C10" t="n">
-        <v>305.993511610141</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D10" t="n">
-        <v>305.993511610141</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E10" t="n">
-        <v>305.993511610141</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1563.652163734639</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1367.202497740608</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1367.202497740608</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1078.084720751006</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>823.400232545119</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>533.9830625081584</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
-        <v>305.993511610141</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.993511610141</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168591</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5108,22 +5108,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6226,7 +6226,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6408,13 +6408,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,13 +6715,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452603</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,28 +6858,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2437.724555511392</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6955,31 +6955,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803939</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452603</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718124</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>191.1953109993611</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8002,7 +8002,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.7601900310589</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>78.54371561234828</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>256.7871481632765</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870219</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>130.6961128228672</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.18437503906577</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1.17252439128409e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-8.966669107403908e-14</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194129</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690483.0894787373</v>
+        <v>690483.089478737</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695122</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695026</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="L4" t="n">
-        <v>6287.480531695024</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531694995</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26502,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408824.1682164779</v>
+        <v>-408824.1682164799</v>
       </c>
       <c r="C6" t="n">
-        <v>384677.4774944166</v>
+        <v>384677.4774944195</v>
       </c>
       <c r="D6" t="n">
         <v>557441.8372843117</v>
       </c>
       <c r="E6" t="n">
-        <v>158143.012349796</v>
+        <v>158455.6536787169</v>
       </c>
       <c r="F6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="G6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="H6" t="n">
-        <v>659031.8800955467</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="I6" t="n">
-        <v>659031.8800955471</v>
+        <v>659344.5214244683</v>
       </c>
       <c r="J6" t="n">
-        <v>489617.8632694987</v>
+        <v>489930.50459842</v>
       </c>
       <c r="K6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.5214244683</v>
       </c>
       <c r="L6" t="n">
-        <v>659031.8800955464</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="M6" t="n">
-        <v>528147.4231913117</v>
+        <v>528460.064520233</v>
       </c>
       <c r="N6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="O6" t="n">
-        <v>659031.8800955472</v>
+        <v>659344.521424468</v>
       </c>
       <c r="P6" t="n">
-        <v>659031.8800955467</v>
+        <v>659344.5214244681</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498447</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,49 +26959,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918293</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>428.269109691829</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>171.1425327398478</v>
       </c>
       <c r="I2" t="n">
-        <v>18.59085167181961</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>95.65477078272684</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>35.34443819222292</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>120.1463049747689</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>42.13994524060246</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>64.50065370405235</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>209.921701726984</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>332.2480458602568</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27906,7 +27906,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>95.42024059296534</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139825</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.6019572654975</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33262,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2467565146281</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
-        <v>246.9596973201433</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>391.6965206394962</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>469.0904820262647</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>460.4681428116963</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>252.6133731413468</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>626.7930971454234</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>500.7020618050142</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025568</v>
@@ -35272,7 +35272,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396407</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402703</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.4053175402692</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
-        <v>108.4053175402691</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
